--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/13_Bartın_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/13_Bartın_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA8098B-37FD-4AA2-904A-743A373C7BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{955156D6-5E22-4AA4-B38C-3A6B354CB1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{405921C6-A24C-4343-92B6-8E30F872160A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{158E15F2-2999-465F-B9A1-17C7D0576F63}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -1001,14 +1001,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{6022098B-2BC6-40F5-A1F9-D6F3772B5B2B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E95E03C9-DB47-4870-9C0D-BA2D72B14C3D}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{F9595A99-FE28-4E65-A824-A85C98132A8B}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{C1006380-B1F4-48F9-968B-9D48A93F50D6}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{AC41C6A8-E0F8-46B3-B19B-DB6C2C45FB54}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{F1866A6E-E25A-4AE3-A3AF-D8EF8D8507D1}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{9049E68D-25DE-4103-9D89-8B44FD125C0C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{6E8B17E7-2DFA-42B0-9940-B4CE9ABD624A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8250F074-16E3-4D1D-8FD6-D57B9975ADE8}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9A52A545-8645-4807-A21E-805A2E7EF530}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{A2E5DF72-4A23-43CC-AC31-8C99E2403A22}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{78BE98A2-1E8F-43FB-987B-25CEE667B510}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{0740AAE3-4348-4B29-9623-0DA91B7547BC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{043D6DDA-4FC8-4B6A-B0CB-F94F0FBF681E}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{2D460040-49ED-4AED-98E7-47896890097A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{5F8DBF90-AF74-4F6E-92E3-F84C06634F5E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1378,7 +1378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F65D45-8188-4E3B-9872-FBE0F8732C4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177FD672-773E-4499-9388-8BAED9FAE535}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2658,18 +2658,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{002A922C-B0D7-4248-9171-EF16B53FE6D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9CA4B8DC-9EBB-4543-860A-E45BC0B9E401}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C4BCC875-ECF5-4C21-8BF9-D661D9F788E2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{748D52D5-E5D3-4D39-85AF-E5ECA0EE7B59}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{681CE3D0-DD46-4BA5-BFAD-678556C878FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C9DDBB3-1802-42A4-B7DD-0B37A391ED3B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{81212EB6-7B2C-44FE-AB5F-F5FB50F2922B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{675E7F2E-4385-42BF-A3CE-5B8BF954E432}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC085AC2-CB70-4E59-A69E-A18232BF9F0D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4E13754B-276B-417C-88B4-29505AD2DA99}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61299239-60ED-41F9-BA7B-08510D55F162}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C290275D-8848-4567-99C3-BFD3173E8734}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53F67E51-DD9A-4923-8929-A2F8CA765014}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{099AB259-BCA6-47AD-8285-3026604E5947}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{155C797B-A18B-487D-8E3F-EF61EA9B24D3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92139E28-07EA-4910-B73A-41DEF091F376}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FE7C1149-2E13-49D3-AAFD-1F99839DE9B5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{574388FE-8561-4344-8844-1DC8E962C0F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95228156-23E7-4C4E-B936-0E768E3709DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{052D0A0C-3C55-4A00-AA8E-6695DF05B82D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74AED8DF-8103-4710-B4BE-8A897AD7E94A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E45EB610-C4F2-495F-8F02-2ED15B77BE72}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E22097AF-EADE-4CED-BF9A-DDB66E42B097}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB6C287D-BFE4-46CB-9B1B-22DB8E5FED85}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2682,7 +2682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C63849-CC36-4855-ACC9-734382278462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC200C7A-8935-45EA-AED2-5DBB82C098BF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3941,18 +3941,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{267B4FA3-98C6-45D5-AAC0-D41A33844B4C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02E7AD8A-74BB-401F-A383-E0412281ADE9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{03548C2E-1F6C-4F66-8A31-00432EC3E415}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C087714F-F3E0-45DF-8B19-B184241D25AB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7162687E-9EEB-4CE0-A8F3-11132E4D25CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{92D75E21-1D1D-4467-9E48-5E20BE21D700}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5F8298D-2FB5-4E04-9235-98E636D06F46}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53DEA627-8254-4FB6-ABEA-4DCE9F6A5245}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7997F9DD-FE53-4DE0-8EC4-CA14534A1D29}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E1852C7-3EB7-495D-A67C-E835BB1A75EB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9D0BCD0-06AB-4D0B-93ED-AF836FCE2BF3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{217EF2E9-4146-46EF-BA4F-058A37861E35}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81D22B06-B60E-47A1-8DDB-F12BCE3AF6BE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27D40310-F071-4922-9AF9-9073B7D6DC9C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23B98214-5172-4A72-9190-B61E8D0F64FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3532A5CC-D65C-4108-AD4D-8BE8F9E8A59B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FC15CA82-5F75-45B7-8CB9-A863405557AD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8031CA7-4623-40B4-8FF7-F93EB4664672}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6EBEBDE2-C86C-40B6-B358-7C6DA45DCDA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69662C35-FC2E-4BE2-8245-25D37FD9E276}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{073DED8B-5DC8-4F8C-B4B1-11CE052BBDD0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ABF78A8A-4E36-4938-80FB-89E3587F2FB7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BF94299-0B33-49D5-917B-2699D9F0B98A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2AF440C9-3230-4EB2-8990-0161BD8ABF7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3965,7 +3965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2622E73-6FD4-4659-9AFE-57B5FF9D0573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD8074F-9172-4125-AEDC-89A33E695A46}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5230,18 +5230,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B796114B-94CF-413F-ABB1-6ADA155782D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9FFA570-32EF-4A77-B554-5DD76B00050F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0EC8AC1D-2DB9-4316-9D20-692E0EDB286F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{147EBA7A-7671-4C02-9358-11F75F8825F3}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0B4D1257-6DEF-4F9B-8481-E06972F89EE6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DBB467A7-ADAE-4F3D-A2A8-19759E262402}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FBADC936-CA8D-4973-829A-32A607E4E4B7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09661935-A834-4DA3-80CD-9F426074427E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5D12EB2-C795-4010-AED1-804015A6435A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F00BBBE-A503-4D3E-B096-CE2B36A893ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F42DD04-B3AC-4DDD-9427-CDE25B71BC1B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CFFF8097-30FE-4BD2-9B89-619BACE34692}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF330DF8-7794-44D0-92FB-E0ED00B004BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FEA1C601-735C-43D9-BEAA-3DB7152DC1C3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F8C483D8-15FB-47C1-94BC-4CD9B221323D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2131E45E-EAF0-4C3E-975F-325C14EEF404}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2E4C2A2B-A02E-44F0-BB9D-C244359C2CD6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7AACB392-47A5-4C4A-AEDF-686527ED058D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DDE40DD-9CB5-4862-AF49-9AA1D8205EFC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BD095BD-8429-4CCE-AC98-8D16412DEDAC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5211C8C1-0CD0-4680-A13C-ABB601B4F9E3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{12D32941-60A0-4AB8-825C-96481FE0D9D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E78ED0AB-5062-4CF7-8684-2937C8413333}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CDC79B1C-8FC3-4EB6-8761-1AD5F82DF6B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5254,7 +5254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F48B93-4235-4D41-8109-F1B83C42997B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7153BE42-CB33-46D9-8960-81B097CCE72A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6503,18 +6503,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4DA4EE7C-8C84-435E-8BE1-51A91F2C8080}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4390EE14-9367-46F9-92F6-7D522600F330}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{37EDD60C-EA42-4501-82AD-0A8CA5D2E931}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C59B9A9B-3817-4C47-A5E1-8A7F155B4A85}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E6870F7E-8FF5-430C-9390-80E494D462E8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62AFEB9C-46DB-4FE4-A7C6-F98E199720CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C02C3BF8-135A-490E-B6DF-DC968E9546E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{215FB42A-0466-4ABF-B3AC-EBF579A35F7A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D97F838-1F12-40ED-B08D-14F82CB10430}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F0D64AD-2FA1-401B-8007-4DA7C20BFF89}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99F7255A-AC7F-44F8-A5AC-C349EF0529F8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6AC7047C-F744-44BF-8835-27BF034B1472}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8F96A07-1F2C-4F66-9AE1-B22118E6DFE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21D574FA-662F-47FB-B936-0BCFFEE7FF84}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5BEA2415-B162-4CCC-98C7-81310C5A9CF9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5B442E7B-ACDD-40D6-9666-4A97190C6D17}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{AAA2590E-0D94-471A-861C-A6033F425F2B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3572DA9A-67A5-4385-90B5-3D5A3C207D2A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32BC1BB7-CD15-4A6A-91E4-1C3EAD29B5AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0762E3D9-E5C7-4DF7-B835-C9AB3FAA2B59}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8E00ED1-3A7A-477F-BCA6-D0EF4D4DFD68}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{446DA775-802F-4883-B648-5EB07BBB7BBC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDBD0B64-9559-4759-8DE6-F3CDA675DA83}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{41FFDBAE-E845-4221-BD70-C3CE8E9311C4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6527,7 +6527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB78B85-7E04-4E18-A9FA-8E2A36E18084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43804381-4807-49D9-934A-18042E7F9CD5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7804,18 +7804,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56D21A3A-D0F2-4B41-9BAF-41BBF5676394}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2664E512-AE10-4E22-B923-99614C744CAB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3ED18D39-FC83-4CED-93D1-D4DCDB480F42}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B40AFC5E-0522-45F0-B154-4761C1D8F546}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FCB7CDF9-57DC-40A8-AD47-E4755217FE30}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EAD1B94B-D03B-4E40-863A-97B6297F6724}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A7F0F86-6F4B-4CE7-A1DF-06E306B89A1E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC1DBF54-24A3-46B4-864B-99ABFEF36B5D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2EE295CA-953D-4FCD-A0F4-2C71BFB38A45}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2CC9BC1E-4599-4CC3-9EEC-F64FA962293D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97F55C8D-FB30-4EDE-8343-386E153698D9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4FD8D87B-9702-4EC9-BA23-F7610B8E5805}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B728D8B5-3CC5-449A-A07F-93595D851EE2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{955F2928-7263-4ED1-B8EE-50AC359D8110}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E5EB0239-F349-4EDA-9C76-84B43A98662F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19EFDC0B-05CF-426C-856E-93B1754A38BA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{590C11AB-D1B9-45DB-9255-245D98D5C9A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2398936-C99B-47A1-930F-D82C0C167275}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90F6527E-ECB2-45B5-B18A-C18C126DBA88}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D37E29C5-3B1F-4CA6-BB76-7E1A691E3708}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E16D9F6F-7646-493B-BC86-CA817BC31E82}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6C6EF4E-5239-4B19-A416-0CDEA16698D7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7872611-F52D-4A74-9EEB-BC5504C0FC00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BCE8152-12C5-48DA-95A0-E4711673D70E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7828,7 +7828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3BD679-DBBF-4B8B-A069-FA1B052CF44B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1618AC9F-7F1D-4C0B-8FBA-F7D90697FC13}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9105,18 +9105,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15340EAE-B449-4469-8A83-FF63AFBCD4A9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD6EF12F-75F4-4CF0-ACEE-C578BA94F669}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C3F215F1-74D5-4AFC-A0E5-07D2D259D829}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A02A91FB-0BB6-48D1-AB63-E35CF583E3B5}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6185482D-BCCE-4BAE-86C5-9061AC81D155}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83B9E44F-2F1D-43AB-826E-BB1F9AEA20D4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{499E6034-93D3-4998-892E-DF4D80A46CF5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EA09809-D38B-4974-B6F1-538CA3B4FBE3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C538223A-16BC-4125-AF68-810A2FE4940A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71022D86-76FB-460E-8C1E-84008722C296}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2DBD004-1667-4CCF-8539-936ED9B2FDCA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F21B9338-33B1-47A5-8628-743C4F06998B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4333DAC0-5806-4CAC-B3E2-E0F1057F16BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C8A9C86B-4C93-4A7D-868A-8354B954A827}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E43B1D1-9797-4111-9ED9-4C5E142A4901}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4A326A62-8BDD-4131-9389-608F6B91352F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F8DEE379-2E6A-419F-8EE9-34DF25831F14}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7D1527D-CDC0-428B-A81C-8B5665A22B98}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BB48E39-AB11-4B52-A919-19514660D351}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4BC24E18-A68C-429A-917B-7802A061A707}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1E06099-9F42-4674-9EF4-C0D1CA02D5F2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E82C57E8-B19D-426B-9406-84F67F902A68}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0295937-480E-4EDC-BC7C-F65A6DF740EE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1ECD1E46-506A-4428-A5EA-BB7D861DD0D6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9129,7 +9129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CC0E44-5C67-48C7-8AC1-D7F1DEB58184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABDAC28-CB14-4A71-9244-76D09259AE0E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10406,18 +10406,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2C45AC8-CE1E-4A87-A237-A6DA17F5876E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30D30ECC-25F1-44AF-8184-EB1AE2183F7A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F13EA3A5-ED04-4DAE-9C03-7F18D0C2041E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{35BB4A30-75F5-4010-9C6A-1A97409E404B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E6B6B793-0336-407D-93EA-CAD74AC29D8A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5261221C-960D-4AEA-B07A-F2F6A4D60CD5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C0B48CFB-F257-4784-AC51-28A23F51E647}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49CC4B0D-D774-4B6C-8761-AC6220C68CF3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D090EDC6-F0D9-454E-BEDF-C0875D5F66B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6736C41A-858E-4556-BF80-63EE6058B304}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62A4EBB8-2C4E-4AE1-9966-74F8CB0B6DF8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB49B2B4-37E0-41CD-A34C-DF59A36E3DBB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5854F4F-4014-4F38-B8F7-C92A41D6BA78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF62CA6A-14FC-484D-AD75-E2576F996D6A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F0CD2C0B-696D-4FA7-808E-6AC67A1E0907}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7F3774C-9FAF-4F20-BAE4-DAAA4E260B57}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3C7D1B6E-0404-48D8-8296-F2AFE7BE437B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D4748E50-BE95-461E-9306-9097C47DBED3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA66298F-C03E-47C9-B469-519B7F903B14}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A385B52A-BD4C-44CF-97F7-A7F1FA900CA8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E8A4DE8-7F3F-4E18-827E-9F245214FF2C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{821316E6-5D6F-461D-9ED1-16499D4259DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9C7B853-C490-4C55-9931-29755B3E5B3C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{507C597C-7BDD-4F83-A8E8-CE5434C7684F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10430,7 +10430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABF701F-A562-48AD-9E79-F88F4016AA54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AD3B0B-DD67-4C82-888A-5DD09483A7F1}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11707,18 +11707,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56D34F4E-8EA3-4CA2-8EAF-18B2CC14B901}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C472232-8289-4603-8FC7-C34F2D933CF5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5EE03F27-D43B-4F93-A38C-131951DB03C5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC440825-118C-4A0F-8822-726666C43B1C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5A1FCEC2-DB22-4975-9D8B-4E75CD1445CB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F59B1A1D-14EB-4504-BDF8-4C6BBD1EF29D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1CB7B67-8705-4F08-9739-0CFB2C98BE99}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2078F12C-EE70-4FCF-87D7-935B1AD3B422}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26F97985-09B6-4BD2-A366-B831C6874F80}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9AB524B1-57EE-4C29-AA5F-4815E646881C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE67AB60-52A2-4B26-87F4-F11073BB9CA6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E22D969-06C2-48C4-A2C7-2776A45EAF54}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52D0D021-ED45-4E22-ACEA-B9A7667FF68B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77B8BA3E-FC7D-4922-A286-5F25EEE041F4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35072620-E073-44A2-A450-2E50ADA173F9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CD173F5-9DC7-401A-940E-BA2267EB0617}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D7C23E0B-6A2A-47E2-A10C-7E84347AC2CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9563E910-EA86-41E2-9080-B10B09E24BD3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7D5128A-1932-410D-8EE2-7786ECCEBA21}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA353A41-EA54-4305-BF7C-BA6DCD2ADAEF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61FCB13A-5F06-442F-97E6-9442922953B7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{378CC717-6EC2-47FF-992D-C41530B7889C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7A42A43-90A3-4F77-A436-68A6A1EEA9B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EDB95A48-9AA4-4119-9444-448D4A9EC94A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11731,7 +11731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E806FDC-1D3F-4A4C-9372-35C4F96431D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ECCA3A-FA38-4179-9071-104B882D389D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13008,18 +13008,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F68ADDFB-94FF-4374-A18B-8C4CFBE7F5AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA91EF86-1148-4C8D-9F7C-3A88839CE23E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1AE21A6F-261B-4145-83A8-DAD03E47108D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3B156D4A-A54A-46A6-B50B-5EF89143F9B8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{636FCF17-622A-4D97-8BB0-8F02E2AA163A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39265C63-8F97-438D-A55B-6825DF827231}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E8B8F53-1234-41CD-A0A5-264F99330070}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{244A0067-A692-4BFF-BE00-BB99D618E4CB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{42CE82AD-A115-4E95-B87F-049BA5224E1B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D7BA696F-B875-4270-8DC9-AAA4C4DB32D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BAFCA970-8E4C-4094-BAFD-5A8F000C7A81}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{056D747C-923E-4F65-9C1A-FDC55EDCC01B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF90BFC4-B0DD-4A09-A873-B6D0D1324D86}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0313195-5F9E-46EE-A0D5-FB126873CC4C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{44084117-49F5-4904-BBBE-F81086675B44}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD3B4B1C-12DA-4FCA-9665-F0F792BA9D6D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F71D5DC7-C39E-48F3-AAEC-80E81CB57112}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E1172ED-E1F4-47EF-9363-05581C266953}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{666BEA2C-B9AA-445E-B57C-8C53CB88A1C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2EA5EF34-3591-49A3-8A9D-5D1223D77B7B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9A95550-1078-45C6-931C-A8AC3BA9553F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3650B5F2-60AF-4FD4-884A-27FE5206027F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{681FC48F-FB20-4EC5-BBFB-33E5C4B65F7F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AEDA15C4-6C80-43DA-A5AC-34A382269BD8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13032,7 +13032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AF913F-B290-4DFD-9DC5-DEA1AF5643C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCF80F3-D859-4548-A2A9-E26702B9FD41}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14303,18 +14303,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E2A8348-3977-4D21-B78A-F52996C1208F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{148A51C6-CAEB-46D3-B139-FFB59561D805}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{28CED064-F75B-46CE-888C-904751762432}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2208E786-799F-4B24-BA8A-D34B7B2510B6}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2B51054C-BFBA-45E5-9042-6CD6ACAA0417}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E46C88A4-C795-459F-831A-991AAE04F3E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40A6FB44-CB11-4040-A249-051D3671F62E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{916AE5CB-874C-4356-B155-6C086DC77913}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{173D1F73-B4F7-42CB-B6D1-06419A356517}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00762E5F-5714-43F5-8BEF-EEDB4156C2B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D08231C-1B3A-40E7-9BF9-13A089421F90}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{952FF6F7-6385-4456-909B-EA66F5DC22FB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DA4D1A2-8631-4F8A-8614-4FBAD3F36F14}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76C515A4-2699-4A5D-BEB0-07F893A4EC8D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA1A5C58-CA00-46B3-878F-236CB529E2B4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{333F3066-51BC-42AC-B71E-78AB231EB9C3}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{898766B0-595F-4504-B8F6-8CB2048A681C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{96238C3D-FCC1-4AD6-BF4D-C00D8CEAEB25}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CE663C2-FB60-479C-B9AA-DC4A24D60F38}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F0CDDD42-437F-4B85-8B13-774EC97AF445}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{75641BA8-EC08-4243-96F1-462B40545EFF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D620C13-7EA6-4501-B3B3-4FB1A7F9B29F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2208DF74-37A9-4FEF-8014-3D2607B6944A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB492258-08F7-4F16-94F1-25A98377C9F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14327,7 +14327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72F163E-676E-40DE-A4F1-C1ECA022C67B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50211A-D697-439D-892D-F04EA18A334E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15600,18 +15600,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52916A1B-3735-4547-97FC-4C9EB1E60BF6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A09CC206-91C3-491A-945D-196481FD31F7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D0EA2893-C353-4449-992F-5CC51AFAD0FC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABB30AF1-6AC1-4BD0-A254-3B11534518EE}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8CFB377F-8002-4EC6-84C6-E5E0E6DDC9C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{042BF22F-3736-445E-A580-9794FE6076C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C4F0EFE-5685-49F8-91B2-BF0CF970F773}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73AB9AC9-1087-45AF-AE95-2F9A6C79A569}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8831B03-40BB-4A56-A7CA-ED2A38D41F45}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ADA37BCE-F759-490F-B1B4-84BD1A69B834}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A24B2F5-15EF-4B34-AA88-15F51C3A87F4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28B4A13E-644E-4DEC-A0F2-6418752FC6CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{413C8ECE-AB6B-4B83-9F32-C100535A36F8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40D31662-25C8-4643-9A7C-FEA9DBF7A74A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E42ABBC6-9A9C-4637-9440-BF67AB20AD96}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4513A128-85A0-4F76-B5D8-71333FE5E758}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E0918952-24F6-4BD1-AA90-B613EE96AAA8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD4AD812-2D28-4390-95D6-58A7A30473A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E7790EA-AC84-4456-A80B-6F8217CBF76E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1B99F31-BE1B-479C-A54F-2D5104798ADE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A93DB78-48E5-46A6-8067-12F8F511821A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7BC9D17-C121-4E58-9DB9-6F86274CDD63}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF9AB4BA-BB72-441E-B3C5-881C5C3EB490}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F40480A2-C2B2-4E42-A98F-166FC83CC24B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15624,7 +15624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20923BF2-DD7E-4A6C-A4C1-FA8ADA774CFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8833A6FD-E5EF-44DC-8E1E-E029199085C2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16897,18 +16897,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D1BC5AC-877D-48F8-994F-AE9A07572ED6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9AF5409A-EF7D-44F7-B99C-7BA823696AB4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DE242F85-0AB2-4592-B7CA-9BFBFBADAE3B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1662089-9353-463F-A108-AF538E0756F6}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{ADAC0B5A-9265-4942-9355-C29D5105AF45}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85B34021-A036-4C2D-BDBC-3BE96CC1BA93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB79791D-7A76-4ED8-ADCB-E7F77F9D8E91}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6306D4DF-E70D-43F6-B79E-7DBE294044A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3A353244-35DB-4C52-8CB1-E68D7065C34A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B826EA5-470D-469B-936E-1DB1D5E42505}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC0A86DC-B3F7-4EC8-AA71-84303B5E2688}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D0D7CEF-8656-49AD-A237-7BD9C99BFAF1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44DD8E85-4BFE-44C4-92AC-D8113EEEF5DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97EEFE4C-B6DF-414D-8C60-094713356104}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0D48A1AB-A1AE-48DD-BBF2-2335CEA7C7A4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3197E5B-F92B-46B7-ACD3-B506A9FC5983}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{091CBF74-370C-4ECB-A381-034366B6417F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66C00597-DC05-4700-9EB7-3F178CE0928A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCDF1DCB-2852-4031-96B3-5FCCA3C267DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{731CDE78-3290-4877-B207-95E03BC80491}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A5B69565-9CF4-4247-A002-C996CACF31E4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7E70065-5FE1-4F16-B023-4263B1D2F7FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19EB50A0-D9FC-426E-962A-A31D8B399221}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{71F05C57-BA20-4C95-991B-5A9C65F71FA9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
